--- a/OnlineTravel/src/main/java/testData/TestData.xlsx
+++ b/OnlineTravel/src/main/java/testData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -438,7 +438,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/OnlineTravel/src/main/java/testData/TestData.xlsx
+++ b/OnlineTravel/src/main/java/testData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
